--- a/src/test/resources/datatest/CRM.xlsx
+++ b/src/test/resources/datatest/CRM.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="8">
   <si>
     <t>EMAIL</t>
   </si>
@@ -99,13 +99,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -426,7 +429,7 @@
       <c r="B2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="7" t="s">
         <v>7</v>
       </c>
     </row>
